--- a/Data/Data.README.xlsx
+++ b/Data/Data.README.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24700" windowHeight="17540" tabRatio="500"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="24700" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t>Colony</t>
   </si>
@@ -112,13 +112,31 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>High only</t>
+  </si>
+  <si>
+    <t>High and Low</t>
+  </si>
+  <si>
+    <t>April 22 2016</t>
+  </si>
+  <si>
+    <t>April 24 2016</t>
+  </si>
+  <si>
+    <t>M2.xlsx</t>
+  </si>
+  <si>
+    <t>X, Y Data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -130,6 +148,22 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -152,14 +186,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -489,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -708,13 +746,59 @@
         <v>22</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="s">
         <v>16</v>
       </c>
       <c r="H9" t="s">
         <v>16</v>
+      </c>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
